--- a/class_map.xlsx
+++ b/class_map.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
   <si>
     <t>User_Process</t>
   </si>
@@ -59,9 +59,6 @@
   </si>
   <si>
     <t>Car</t>
-  </si>
-  <si>
-    <t>Employee Process</t>
   </si>
   <si>
     <t>Employee: Leader</t>
@@ -425,13 +422,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S16"/>
+  <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:18">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -483,11 +480,8 @@
       <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19">
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -498,7 +492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -508,17 +502,17 @@
       <c r="D3">
         <v>1</v>
       </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
       <c r="J3">
         <v>1</v>
       </c>
       <c r="O3">
         <v>1</v>
       </c>
-      <c r="Q3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -529,7 +523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:18">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -537,7 +531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:18">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -547,11 +541,11 @@
       <c r="G6">
         <v>1</v>
       </c>
-      <c r="R6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
+      <c r="Q6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -567,11 +561,11 @@
       <c r="J7">
         <v>1</v>
       </c>
-      <c r="S7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
+      <c r="R7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -579,7 +573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:18">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -590,7 +584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:18">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -601,7 +595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:18">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -609,7 +603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:18">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -623,7 +617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:18">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -637,7 +631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:18">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -651,7 +645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:18">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -662,7 +656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:18">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>

--- a/class_map.xlsx
+++ b/class_map.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
   <si>
     <t>User_Process</t>
   </si>
@@ -22,12 +22,12 @@
     <t>Employee_Process</t>
   </si>
   <si>
+    <t>Strategy</t>
+  </si>
+  <si>
     <t>Capability</t>
   </si>
   <si>
-    <t>Strategy</t>
-  </si>
-  <si>
     <t>Department</t>
   </si>
   <si>
@@ -59,12 +59,6 @@
   </si>
   <si>
     <t>Car</t>
-  </si>
-  <si>
-    <t>Employee: Leader</t>
-  </si>
-  <si>
-    <t>Department: Leader for</t>
   </si>
 </sst>
 </file>
@@ -422,13 +416,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R16"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -474,14 +468,8 @@
       <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -492,14 +480,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
@@ -508,30 +496,33 @@
       <c r="J3">
         <v>1</v>
       </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
       <c r="O3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
       <c r="D5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -541,11 +532,8 @@
       <c r="G6">
         <v>1</v>
       </c>
-      <c r="Q6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -561,11 +549,8 @@
       <c r="J7">
         <v>1</v>
       </c>
-      <c r="R7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -573,7 +558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -584,7 +569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -595,7 +580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -603,7 +588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:16">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -617,7 +602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:16">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -631,7 +616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:16">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -645,7 +630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:16">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -656,7 +641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:16">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>

--- a/class_map.xlsx
+++ b/class_map.xlsx
@@ -16,12 +16,24 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
   <si>
+    <t>User_Journey</t>
+  </si>
+  <si>
     <t>User_Process</t>
   </si>
   <si>
+    <t>Employee_Journey</t>
+  </si>
+  <si>
     <t>Employee_Process</t>
   </si>
   <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Business_Model</t>
+  </si>
+  <si>
     <t>Strategy</t>
   </si>
   <si>
@@ -44,18 +56,6 @@
   </si>
   <si>
     <t>KPI</t>
-  </si>
-  <si>
-    <t>Business_Model</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>User_Journey</t>
-  </si>
-  <si>
-    <t>Employee_Journey</t>
   </si>
   <si>
     <t>Car</t>
@@ -476,7 +476,10 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="L2">
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="G2">
         <v>1</v>
       </c>
     </row>
@@ -484,22 +487,7 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
       <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="O3">
         <v>1</v>
       </c>
     </row>
@@ -507,7 +495,13 @@
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
       <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="G4">
         <v>1</v>
       </c>
     </row>
@@ -521,15 +515,30 @@
       <c r="D5">
         <v>1</v>
       </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
       <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="P6">
         <v>1</v>
       </c>
     </row>
@@ -537,16 +546,10 @@
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
       <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
         <v>1</v>
       </c>
     </row>
@@ -554,7 +557,7 @@
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G8">
+      <c r="I8">
         <v>1</v>
       </c>
     </row>
@@ -562,10 +565,10 @@
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="M9">
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="H9">
         <v>1</v>
       </c>
     </row>
@@ -573,10 +576,10 @@
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="G10">
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="K10">
         <v>1</v>
       </c>
     </row>
@@ -584,7 +587,16 @@
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C11">
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
         <v>1</v>
       </c>
     </row>
@@ -592,13 +604,7 @@
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>1</v>
-      </c>
-      <c r="N12">
+      <c r="K12">
         <v>1</v>
       </c>
     </row>
@@ -606,13 +612,10 @@
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="P13">
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="K13">
         <v>1</v>
       </c>
     </row>
@@ -620,13 +623,10 @@
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="O14">
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="K14">
         <v>1</v>
       </c>
     </row>
@@ -634,10 +634,7 @@
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="N15">
+      <c r="E15">
         <v>1</v>
       </c>
     </row>
@@ -645,7 +642,7 @@
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M16">
+      <c r="F16">
         <v>1</v>
       </c>
     </row>

--- a/class_map.xlsx
+++ b/class_map.xlsx
@@ -518,7 +518,7 @@
       <c r="I5">
         <v>1</v>
       </c>
-      <c r="J5">
+      <c r="L5">
         <v>1</v>
       </c>
       <c r="N5">
@@ -549,6 +549,9 @@
       <c r="B7">
         <v>1</v>
       </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
       <c r="F7">
         <v>1</v>
       </c>
@@ -576,9 +579,6 @@
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
       <c r="K10">
         <v>1</v>
       </c>
@@ -596,9 +596,6 @@
       <c r="M11">
         <v>1</v>
       </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="1" t="s">
@@ -624,9 +621,6 @@
         <v>12</v>
       </c>
       <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="K14">
         <v>1</v>
       </c>
     </row>

--- a/class_map.xlsx
+++ b/class_map.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
   <si>
     <t>User_Journey</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>Department</t>
+  </si>
+  <si>
+    <t>Business_Class</t>
   </si>
   <si>
     <t>Employee</t>
@@ -416,13 +419,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -468,8 +471,11 @@
       <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -483,7 +489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -491,7 +497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -505,7 +511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -518,31 +524,31 @@
       <c r="I5">
         <v>1</v>
       </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="N5">
+      <c r="M5">
         <v>1</v>
       </c>
       <c r="O5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="P5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -556,7 +562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:17">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -564,7 +570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:17">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -575,56 +581,59 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:17">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="L10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J11">
         <v>1</v>
       </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="L13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -632,11 +641,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:17">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F16">
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17">
         <v>1</v>
       </c>
     </row>

--- a/class_map.xlsx
+++ b/class_map.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="17">
   <si>
     <t>User_Journey</t>
   </si>
@@ -43,7 +43,7 @@
     <t>Department</t>
   </si>
   <si>
-    <t>Business_Class</t>
+    <t>Department_Class</t>
   </si>
   <si>
     <t>Employee</t>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>Car</t>
+  </si>
+  <si>
+    <t>KnowHow</t>
   </si>
 </sst>
 </file>
@@ -419,13 +422,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -474,8 +477,11 @@
       <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -489,7 +495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -497,7 +503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:18">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -511,7 +517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:18">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -533,8 +539,11 @@
       <c r="P5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -548,7 +557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:18">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -562,7 +571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:18">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -570,7 +579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:18">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -581,7 +590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:18">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -592,7 +601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:18">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -600,7 +609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:18">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -614,7 +623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:18">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -622,7 +631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:18">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -633,7 +642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:18">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -641,7 +650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:18">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -654,6 +663,14 @@
         <v>15</v>
       </c>
       <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18">
         <v>1</v>
       </c>
     </row>
